--- a/PCB/MIDI_Synthesizer_BOM.xlsx
+++ b/PCB/MIDI_Synthesizer_BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECE5780-FP\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96662F7-50A9-47B7-9D4E-9D92586C927D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AFD858-1B37-4A02-9839-42667BC47FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{F5B06011-327D-4BF3-8B8F-402B5E700F5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{F5B06011-327D-4BF3-8B8F-402B5E700F5C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assembly" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="99">
   <si>
     <t>Comment</t>
   </si>
@@ -348,12 +349,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -368,9 +381,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,9 +413,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,11 +748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B12187-F122-4AC4-923B-B16629726FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD8EFC3-DCDA-4F78-816C-F0FE69DDD3A1}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,12 +1738,1015 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F42 G12 G26 G42 G22">
+  <conditionalFormatting sqref="F2:F42 G12 G22 G26 G42">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B12187-F122-4AC4-923B-B16629726FEA}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2*4</f>
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E42" si="0">D3*4</f>
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>220</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>470</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F42 G12 G22 G26 G42">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
